--- a/3DLv3_2023_vs2019/Plan/仕様書.xlsx
+++ b/3DLv3_2023_vs2019/Plan/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB4B041-C581-41B7-B1CD-2F66F346ECF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A93D78-6AAC-4211-9846-D39F31E30CD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{7A52184D-15D5-40B2-8EEB-AA849D271B43}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
   <si>
     <t>タイトル画面</t>
     <rPh sb="4" eb="6">
@@ -81,19 +81,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイトル画面、ステージ選択画面、ゲームプレイ中</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>センタクガメン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ゲームオーバー</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -150,19 +137,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>弱攻撃に属性を反映させる</t>
-    <rPh sb="0" eb="3">
-      <t>ジャクコウゲキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>WASDキー処理(移動)</t>
     <rPh sb="9" eb="11">
       <t>イドウ</t>
@@ -384,16 +358,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>属性攻撃に反応するギミック</t>
-    <rPh sb="0" eb="4">
-      <t>ゾクセイコウゲキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プレイヤー接近時に動くオブジェクト</t>
     <rPh sb="5" eb="8">
       <t>セッキンジ</t>
@@ -456,6 +420,182 @@
   </si>
   <si>
     <t xml:space="preserve">   ?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弱攻撃(J)</t>
+    <rPh sb="0" eb="3">
+      <t>ジャクコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強攻撃(K)</t>
+    <rPh sb="0" eb="3">
+      <t>キョウコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弱攻撃に属性を反映させる(L)</t>
+    <rPh sb="0" eb="3">
+      <t>ジャクコウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特殊攻撃に反応するギミック</t>
+    <rPh sb="0" eb="2">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル画面、ステージ選択画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>センタクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キーボード操作</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>道を教えてくれる</t>
+    <rPh sb="0" eb="1">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーに特殊な状態を付与するアイテム</t>
+    <rPh sb="6" eb="8">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※炎、水、草など</t>
+    <rPh sb="1" eb="2">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面右下に、攻撃アイコンを設定する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>攻撃にクールタイムを設定する</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -463,7 +603,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +659,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -551,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -559,8 +724,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,8 +750,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,15 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -605,11 +773,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - アクセント 2" xfId="2" builtinId="34"/>
     <cellStyle name="20% - アクセント 4" xfId="3" builtinId="42"/>
     <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
+    <cellStyle name="見出し 1" xfId="5" builtinId="16"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="4" builtinId="26"/>
   </cellStyles>
@@ -774,7 +973,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295400" y="2606040"/>
+          <a:off x="1295400" y="2811780"/>
           <a:ext cx="114300" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1236,7 +1435,945 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>98688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>220979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D01EED43-79EA-4EF6-AAA2-EC67F4F59B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="6133728"/>
+          <a:ext cx="1219200" cy="625211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219551</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE061A2-6A75-41DE-ABE0-1256FC561E6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2231231" y="7649830"/>
+          <a:ext cx="321469" cy="328309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矢印: 上 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA1600F-AD78-43B6-9366-BD74BFEBB2F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3057175">
+          <a:off x="1889760" y="7978140"/>
+          <a:ext cx="53340" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>167641</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541021</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>213361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E2E1B4-5211-4B21-8D25-7A11FFED98AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1508761" y="7635241"/>
+          <a:ext cx="373380" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>-23684</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>198253</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1000000" cy="233205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BF39E4-18D1-42D3-94F6-18AEAF0014EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-23684" y="952633"/>
+          <a:ext cx="1000000" cy="233205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>327480</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>172440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>421440</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="27" name="インク 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D7CA04-247A-4EA5-B228-35A108016B2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1668600" y="7716240"/>
+            <a:ext cx="93960" cy="18000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="インク 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D7CA04-247A-4EA5-B228-35A108016B2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1650600" y="7698240"/>
+              <a:ext cx="129600" cy="53640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>178183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="グラフィックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58433945-DE65-4D1C-9737-3298D6317450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1950720" y="6213223"/>
+          <a:ext cx="861060" cy="1216277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D3C423-1376-4DAB-B335-D043CDB041A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="7307580"/>
+          <a:ext cx="274320" cy="280949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83819</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="53340" cy="160021"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58EE9FE9-65A0-4C83-9CB5-7AC635685125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3322320" y="7376159"/>
+          <a:ext cx="53340" cy="160021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330179</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>211289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>498999</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>56332</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矢印: 上 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4545A2-E331-41E3-A357-23F13A674555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4038140">
+          <a:off x="366337" y="6461631"/>
+          <a:ext cx="96503" cy="168820"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="矢印: 上 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF91A4F-AB6F-44F7-932C-9C714BF418DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3806915">
+          <a:off x="1200150" y="7837170"/>
+          <a:ext cx="53340" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>192866</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552847</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>211115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矢印: 上 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BE7250-0B9D-43A0-996D-4881EDEDB220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="15414194">
+          <a:off x="3013066" y="6527054"/>
+          <a:ext cx="84061" cy="359981"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>545609</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>168638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30005</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矢印: 上 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3539E6B-617E-4AF7-AB40-C4CE90E1538B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14209350">
+          <a:off x="3257136" y="7180231"/>
+          <a:ext cx="96382" cy="154956"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>487681</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106681</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>55677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F3CC22F-FAA4-49AD-827C-E15BC71B6760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3169921" y="7812837"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>487681</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>167006</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="289560" cy="233205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98BF25C-31DC-4F8D-B8AC-6F916C798B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3169921" y="8716646"/>
+          <a:ext cx="289560" cy="233205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254016</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>218302</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矢印: 上 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65079A83-105B-49FB-8428-E649AEB8E2FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18044641">
+          <a:off x="3481147" y="7887893"/>
+          <a:ext cx="96382" cy="154956"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T04:44:11.892"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 50</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1120.629">0 50,'7'0,"14"0,9 0,12 0,-2-11,-1-3,4 0,-5 3</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1536,10 +2673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118E501F-127E-4189-ADF4-22FF9E16DD43}">
-  <dimension ref="B1:M52"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1548,490 +2685,695 @@
     <col min="12" max="12" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="K1" s="5" t="s">
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="2:13" ht="20.399999999999999" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="K4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="K5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="E6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="K7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="3">
+        <v>8</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="K9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="3">
+        <v>4</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="K10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="K11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="I12" s="2"/>
+      <c r="K12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="3">
         <v>8</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="K3" s="7" t="s">
+      <c r="M12" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="K13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="3">
+        <v>8</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="K14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="K15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="K16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="K17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="K4" s="6" t="s">
+      <c r="L17" s="3">
+        <v>2</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="K18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="K19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="K22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K5" s="6" t="s">
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="K23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L26" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="K6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="M26" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="K7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="M27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="E9" s="4" t="s">
+      <c r="M31" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="3">
+        <v>4</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="C33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="3">
+        <v>4</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="3">
+        <v>4</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="3">
+        <v>4</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="3">
+        <v>4</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="3">
+        <v>4</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="3">
+        <v>4</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39" s="3">
+        <v>4</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" s="3">
+        <v>8</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L41" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="K9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="6">
+      <c r="M41" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="K10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="3" t="s">
+      <c r="M43" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44" s="3">
+        <v>6</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="H12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="K12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="M45" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="11:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L49" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="K13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="K15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="K16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="K18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="K19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="6">
+      <c r="M49" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="11:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="11:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L51" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L34" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L36" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K37" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L37" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L38" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K39" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L39" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L40" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L41" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K43" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L43" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K44" s="6" t="s">
+      <c r="M51" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="11:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L44" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K45" s="6" t="s">
+      <c r="L52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="11:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="K53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L45" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K46" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K47" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K48" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K49" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L49" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K50" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L50" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K51" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="11:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="K52" s="6" t="s">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="19">
+    <mergeCell ref="B22:D23"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="B18:C19"/>
     <mergeCell ref="H9:I10"/>
     <mergeCell ref="E9:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3DLv3_2023_vs2019/Plan/仕様書.xlsx
+++ b/3DLv3_2023_vs2019/Plan/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A93D78-6AAC-4211-9846-D39F31E30CD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C0DC9-A274-4995-9D34-B861DE06FA65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{7A52184D-15D5-40B2-8EEB-AA849D271B43}"/>
   </bookViews>
@@ -1197,8 +1197,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1213,8 +1213,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="162664" y="966208"/>
-          <a:ext cx="507896" cy="3369572"/>
+          <a:off x="162664" y="1019548"/>
+          <a:ext cx="507896" cy="3864872"/>
         </a:xfrm>
         <a:prstGeom prst="curvedLeftArrow">
           <a:avLst/>
@@ -2676,7 +2676,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
